--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC4907C-9D03-4B4D-B059-4C979EE08B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B339498-73DE-49DB-A73E-7C75598CE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -85,8 +85,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,12 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +465,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,11 +473,11 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -491,19 +490,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -517,19 +516,19 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>45822</v>
       </c>
       <c r="F2" s="1">
         <v>45332</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>10000</v>
       </c>
     </row>
@@ -543,19 +542,19 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>46188</v>
       </c>
       <c r="F3" s="1">
         <v>45362</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>20000</v>
       </c>
     </row>
@@ -569,19 +568,19 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>46189</v>
       </c>
       <c r="F4" s="1">
         <v>45394</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>300</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>30000</v>
       </c>
     </row>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B339498-73DE-49DB-A73E-7C75598CE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6B43E-595E-4D3D-9324-4653274BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>servicecategory</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>category</t>
   </si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
   </si>
   <si>
     <t>Equipment</t>
@@ -462,125 +456,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45822</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45332</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45822</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45332</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10000</v>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46188</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45362</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>46188</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45362</v>
-      </c>
-      <c r="G3" s="2">
-        <v>200</v>
-      </c>
-      <c r="H3" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>30</v>
       </c>
+      <c r="D4" s="1">
+        <v>46189</v>
+      </c>
       <c r="E4" s="1">
-        <v>46189</v>
-      </c>
-      <c r="F4" s="1">
         <v>45394</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <v>30000</v>
       </c>
     </row>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6B43E-595E-4D3D-9324-4653274BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58C44C-5F9E-413A-A555-9F5C008D9726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>Coflin</t>
+    <t>oral b</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58C44C-5F9E-413A-A555-9F5C008D9726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF380DA-36D2-4293-AA12-82E25E2E6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>category</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>oral b</t>
+  </si>
+  <si>
+    <t>pharmacy</t>
+  </si>
+  <si>
+    <t>Pharmacy 1</t>
+  </si>
+  <si>
+    <t>Pharmacy 2</t>
+  </si>
+  <si>
+    <t>Pharmacy 3</t>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,9 +483,10 @@
     <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +508,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -518,8 +534,11 @@
       <c r="G2" s="3">
         <v>10000</v>
       </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -541,8 +560,11 @@
       <c r="G3" s="3">
         <v>20000</v>
       </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -563,6 +585,9 @@
       </c>
       <c r="G4" s="3">
         <v>30000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF380DA-36D2-4293-AA12-82E25E2E6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46973E3E-64CC-43AA-B1D0-ACEF2BC5208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="stocklist" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,9 @@
     <t>Equipment</t>
   </si>
   <si>
-    <t>Panadol</t>
-  </si>
-  <si>
     <t>Medical</t>
   </si>
   <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>oral b</t>
-  </si>
-  <si>
     <t>pharmacy</t>
   </si>
   <si>
@@ -84,6 +75,15 @@
   </si>
   <si>
     <t>Pharmacy 3</t>
+  </si>
+  <si>
+    <t>Panadolss</t>
+  </si>
+  <si>
+    <t>Paracetamolss</t>
+  </si>
+  <si>
+    <t>oral ui</t>
   </si>
 </sst>
 </file>
@@ -471,22 +471,22 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="9.1796875" style="3"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,22 +509,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>45822</v>
-      </c>
       <c r="E2" s="1">
         <v>45332</v>
       </c>
@@ -535,22 +532,19 @@
         <v>10000</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>46188</v>
-      </c>
       <c r="E3" s="1">
         <v>45362</v>
       </c>
@@ -561,22 +555,19 @@
         <v>20000</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
-        <v>46189</v>
-      </c>
       <c r="E4" s="1">
         <v>45394</v>
       </c>
@@ -587,7 +578,7 @@
         <v>30000</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEEE75-5691-4E7A-976C-C0845CB338C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C0B3F-BCA0-49DA-9352-8100AC5945BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Tab Aceclofenac + Paracetamol (Noach)</t>
   </si>
   <si>
-    <t>drugid</t>
+    <t>productid</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H3216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/downloads/inventory.xlsx
+++ b/downloads/inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A024D8-416D-4643-9914-76B7A4CA164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DA747-A9F0-489D-8DE2-77D39F4AA7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
